--- a/Resultados_Optimos.xlsx
+++ b/Resultados_Optimos.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,10 +488,15 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>sim_seconds</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>energy</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>edp</t>
         </is>
@@ -537,9 +542,12 @@
         <v>1.126074</v>
       </c>
       <c r="K2" t="n">
+        <v>0.110477</v>
+      </c>
+      <c r="L2" t="n">
         <v>3.199319557511</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>2.841126939171626</v>
       </c>
     </row>
@@ -583,9 +591,12 @@
         <v>1.074143</v>
       </c>
       <c r="K3" t="n">
+        <v>0.139339</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.760928320225</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>2.570355242921469</v>
       </c>
     </row>
@@ -629,9 +640,12 @@
         <v>0.844089</v>
       </c>
       <c r="K4" t="n">
+        <v>0.219315</v>
+      </c>
+      <c r="L4" t="n">
         <v>4.34146090722</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>5.143367809931699</v>
       </c>
     </row>
@@ -675,9 +689,12 @@
         <v>0.914592</v>
       </c>
       <c r="K5" t="n">
+        <v>0.16739</v>
+      </c>
+      <c r="L5" t="n">
         <v>4.346607045463999</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>4.752510597797609</v>
       </c>
     </row>
@@ -721,9 +738,12 @@
         <v>1.105379</v>
       </c>
       <c r="K6" t="n">
+        <v>0.099257</v>
+      </c>
+      <c r="L6" t="n">
         <v>2.441731515013</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>2.208953924492266</v>
       </c>
     </row>
@@ -767,9 +787,12 @@
         <v>0.837333</v>
       </c>
       <c r="K7" t="n">
+        <v>0.135569</v>
+      </c>
+      <c r="L7" t="n">
         <v>2.641268188428</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>3.154382076857531</v>
       </c>
     </row>
@@ -784,7 +807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -845,10 +868,15 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>sim_seconds</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>energy</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>edp</t>
         </is>
@@ -894,9 +922,12 @@
         <v>1.082602</v>
       </c>
       <c r="K2" t="n">
+        <v>0.114913</v>
+      </c>
+      <c r="L2" t="n">
         <v>3.018096456299999</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>2.78781569668431</v>
       </c>
     </row>
@@ -940,9 +971,12 @@
         <v>1.04034</v>
       </c>
       <c r="K3" t="n">
+        <v>0.143866</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.738154221088</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>2.631979553011092</v>
       </c>
     </row>
@@ -986,9 +1020,12 @@
         <v>0.834039</v>
       </c>
       <c r="K4" t="n">
+        <v>0.221958</v>
+      </c>
+      <c r="L4" t="n">
         <v>4.18905455849</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>5.022613579811132</v>
       </c>
     </row>
@@ -1032,9 +1069,12 @@
         <v>0.897737</v>
       </c>
       <c r="K5" t="n">
+        <v>0.170533</v>
+      </c>
+      <c r="L5" t="n">
         <v>4.086184553928</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>4.551650008835046</v>
       </c>
     </row>
@@ -1078,9 +1118,12 @@
         <v>1.105379</v>
       </c>
       <c r="K6" t="n">
+        <v>0.099257</v>
+      </c>
+      <c r="L6" t="n">
         <v>2.441731515013</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>2.208953924492266</v>
       </c>
     </row>
@@ -1124,9 +1167,12 @@
         <v>0.806164</v>
       </c>
       <c r="K7" t="n">
+        <v>0.140811</v>
+      </c>
+      <c r="L7" t="n">
         <v>2.573308092978</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>3.192039437469816</v>
       </c>
     </row>
@@ -1141,7 +1187,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1202,10 +1248,15 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>sim_seconds</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>energy</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>edp</t>
         </is>
@@ -1251,9 +1302,12 @@
         <v>1.100934</v>
       </c>
       <c r="K2" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="L2" t="n">
         <v>3.037048141848</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>2.758608531155233</v>
       </c>
     </row>
@@ -1297,9 +1351,12 @@
         <v>1.074143</v>
       </c>
       <c r="K3" t="n">
+        <v>0.139339</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.760928320225</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>2.570355242921469</v>
       </c>
     </row>
@@ -1343,9 +1400,12 @@
         <v>0.834039</v>
       </c>
       <c r="K4" t="n">
+        <v>0.221958</v>
+      </c>
+      <c r="L4" t="n">
         <v>4.18905455849</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>5.022613579811132</v>
       </c>
     </row>
@@ -1389,9 +1449,12 @@
         <v>0.897737</v>
       </c>
       <c r="K5" t="n">
+        <v>0.170533</v>
+      </c>
+      <c r="L5" t="n">
         <v>4.086184553928</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>4.551650008835046</v>
       </c>
     </row>
@@ -1435,9 +1498,12 @@
         <v>1.105379</v>
       </c>
       <c r="K6" t="n">
+        <v>0.099257</v>
+      </c>
+      <c r="L6" t="n">
         <v>2.441731515013</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>2.208953924492266</v>
       </c>
     </row>
@@ -1481,9 +1547,12 @@
         <v>0.837333</v>
       </c>
       <c r="K7" t="n">
+        <v>0.135569</v>
+      </c>
+      <c r="L7" t="n">
         <v>2.641268188428</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>3.154382076857531</v>
       </c>
     </row>
